--- a/reports/_KLB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_34_.xlsx
+++ b/reports/_KLB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_34_.xlsx
@@ -1330,8 +1330,8 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="33.889887640449444"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="34.98988764044944"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="43.789887640449436"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1563,7 +1563,7 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2017-05-18T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1298655</v>
       </c>
@@ -1621,232 +1621,74 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>36865</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>KKFU6673814</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>KLB</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>KLB</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>CAPE MONTEREY</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>2017/1147</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2017-05-18T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>564</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1298655</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>POWER CABLE &amp; PLUG OK</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>36865</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>KKFU6673814</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>KLB</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>KLB</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>CAPE MONTEREY</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>2017/1147</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="d">
-        <v>2017-05-18T00:00:00</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="n">
-        <v>564</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="0" t="n">
-        <v>1298655</v>
-      </c>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
-        <is>
           <t>RF FLOOR DIRTY BY DUST &amp; ODOUR.</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>40305</v>

--- a/reports/_KLB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_34_.xlsx
+++ b/reports/_KLB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_34_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="237.38988764044944" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.98988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28988764044944"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="43.789887640449436"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,70 +1621,28 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>POWER CABLE &amp; PLUG OK</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "REEFER CONTAINER-(REEFER CONTAINER)", "DOOR INNER PANEL-(DOOR INNER PANEL)", "POWER CABLE &amp; PLUG OK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>RF FLOOR DIRTY BY DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "RF FLOOR DIRTY BY DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">

--- a/reports/_KLB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_34_.xlsx
+++ b/reports/_KLB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_34_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="237.38988764044944" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1330,8 +1330,8 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="27.28988764044944"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="43.789887640449436"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "REEFER CONTAINER-(REEFER CONTAINER)", "DOOR INNER PANEL-(DOOR INNER PANEL)", "POWER CABLE &amp; PLUG OK", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>POWER CABLE &amp; PLUG OK</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1638,9 +1684,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "RF FLOOR DIRTY BY DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>RF FLOOR DIRTY BY DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_KLB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_34_.xlsx
+++ b/reports/_KLB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_34_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:2</t>
+          <t>Total number of containers:2</t>
         </is>
       </c>
     </row>
